--- a/biology/Botanique/Betula_cordifolia/Betula_cordifolia.xlsx
+++ b/biology/Botanique/Betula_cordifolia/Betula_cordifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">bouleau à feuilles cordées, bouleau cordifolié
 Betula cordifolia une espèce d'arbres de la famille des Betulaceae. Cette espèce de bouleaux est originaire des zones montagneuses de l'est de l'Amérique du Nord.
@@ -513,15 +525,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Betula alba cordifolia (Regel) Fernald[2]
-Betula alba var. cordifolia (Regel) Regel[3]
-Betula alba (Regel) Regel[4]
-Betula cordifolia Regel[3]
-Betula papyracea var. cordifolia (Regel) Dippel[3]
-Betula papyrifera cordifolia (Regel) Fernald[2]
-Betula papyrifera (Regel) Fernald[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Betula alba cordifolia (Regel) Fernald
+Betula alba var. cordifolia (Regel) Regel
+Betula alba (Regel) Regel
+Betula cordifolia Regel
+Betula papyracea var. cordifolia (Regel) Dippel
+Betula papyrifera cordifolia (Regel) Fernald
+Betula papyrifera (Regel) Fernald</t>
         </is>
       </c>
     </row>
